--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -49,21 +49,27 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
@@ -73,15 +79,6 @@
     <t>crazy</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
@@ -103,43 +100,46 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
   </si>
   <si>
     <t>’</t>
@@ -506,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>44</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -625,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9519230769230769</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C4">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.7931034482758621</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.8125</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,16 +796,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.7719298245614035</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,16 +846,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.7066666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -875,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.5925925925925926</v>
+        <v>0.65</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -925,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.625</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.55</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -975,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6170212765957447</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.4242424242424243</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1025,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5652173913043478</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1043,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.3958333333333333</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1075,37 +1075,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5428571428571428</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>19</v>
       </c>
-      <c r="D13">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>16</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5384615384615384</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1143,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.2377049180327869</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>837</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1175,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5217391304347826</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15">
         <v>0.2372881355932203</v>
@@ -1225,7 +1225,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -1243,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.1690140845070423</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>59</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1275,13 +1275,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4642857142857143</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.03012048192771084</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>644</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1325,87 +1325,63 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3846153846153846</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>285</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L18">
         <v>15</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>15</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>24</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K18">
-        <v>0.02407407407407407</v>
-      </c>
-      <c r="L18">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>13</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.0436241610738255</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>285</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.01536491677336748</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1417,33 +1393,59 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>769</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>0.01920614596670935</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K20">
-        <v>0.01382488479262673</v>
-      </c>
-      <c r="L20">
-        <v>24</v>
-      </c>
-      <c r="M20">
-        <v>24</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1712</v>
+      <c r="K21">
+        <v>0.01670506912442396</v>
+      </c>
+      <c r="L21">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1707</v>
       </c>
     </row>
   </sheetData>
